--- a/templates/Part Dimensions.xlsx
+++ b/templates/Part Dimensions.xlsx
@@ -11999,7 +11999,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F5" s="59">
@@ -12015,7 +12015,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
@@ -12025,11 +12025,7 @@
           <t>HRS Cost</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>120000</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -12058,7 +12054,7 @@
         </is>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -12068,7 +12064,7 @@
         </is>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
